--- a/ClinicalTrial.xlsx
+++ b/ClinicalTrial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315FA62-6133-4F86-A88D-5681E445D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C440A95-6A5A-4AB9-B4AF-5E4B30805919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
   <si>
     <t>Phase</t>
   </si>
@@ -399,6 +399,33 @@
   </si>
   <si>
     <t>Complaints and Pain</t>
+  </si>
+  <si>
+    <t>Stomatology</t>
+  </si>
+  <si>
+    <t>Caries AI Detection</t>
+  </si>
+  <si>
+    <t>Upwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostic accuracy of FET PET Imaging to glioma </t>
+  </si>
+  <si>
+    <t>TLX101-CDx IU Study</t>
+  </si>
+  <si>
+    <t>[Metastatic Prostate Cancer](https://classic.clinicaltrials.gov/ct2/show/NCT04786847)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telix </t>
+  </si>
+  <si>
+    <t>[Eosinophilic Gastroenteritis](https://classic.clinicaltrials.gov/ct2/show/NCT05214768)</t>
+  </si>
+  <si>
+    <t>CC-93538</t>
   </si>
 </sst>
 </file>
@@ -770,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,18 +1066,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1066,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,15 +1105,15 @@
         <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,12 +1121,12 @@
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1106,7 +1137,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1122,7 +1153,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1138,7 +1169,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1154,7 +1185,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1170,7 +1201,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1186,7 +1217,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1202,7 +1233,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1218,7 +1249,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1234,12 +1265,12 @@
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1250,31 +1281,31 @@
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1282,7 +1313,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1290,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1298,15 +1329,15 @@
         <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1314,15 +1345,15 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1330,7 +1361,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1346,47 +1377,47 @@
         <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1394,39 +1425,35 @@
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1434,19 +1461,19 @@
         <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,19 +1481,19 @@
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,31 +1501,35 @@
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,79 +1537,75 @@
         <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,107 +1613,119 @@
         <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,31 +1733,31 @@
         <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,73 +1765,145 @@
         <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/ClinicalTrial.xlsx
+++ b/ClinicalTrial.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C440A95-6A5A-4AB9-B4AF-5E4B30805919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF38FA5-D8A3-4D5A-BEA2-8E0E4C1D8366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="205">
   <si>
     <t>Phase</t>
   </si>
@@ -68,9 +71,6 @@
     <t>Phase 2</t>
   </si>
   <si>
-    <t>158 Sites</t>
-  </si>
-  <si>
     <t>Multiple Sites</t>
   </si>
   <si>
@@ -98,15 +98,6 @@
     <t>[AML and MDS patients failing or being refractory to   hypomethylating agent (HMA)-based treatment](https://classic.clinicaltrials.gov/ct2/show/NCT05583552)</t>
   </si>
   <si>
-    <t xml:space="preserve">[Triple Negative Breast Cancer](https://clinicaltrials.gov/ct2/show/NCT02032277) </t>
-  </si>
-  <si>
-    <t>[Breast Cancer](https://clinicaltrials.gov/ct2/show/NCT02682693?term=GeparX&amp;draw=2&amp;rank=1)</t>
-  </si>
-  <si>
-    <t>[Breast Cance](https://clinicaltrials.gov/ct2/show/NCT02685059?term=GeparNuevo&amp;draw=2&amp;rank=1)</t>
-  </si>
-  <si>
     <t>[Cutaneous melanoma](https://www.melagenix.info/about-melagenix)</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>Survey-RT Decalin</t>
   </si>
   <si>
-    <t>Presbyopia</t>
-  </si>
-  <si>
     <t>Ophthalmology</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>[COVID-19](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9095852/)</t>
   </si>
   <si>
-    <t>[COVID-19](https://www.baden-wuerttemberg.de/de/service/alle-meldungen/meldung/pid/studie-zum-moeglichen-infektionsrisiko-im-nahverkehr-gestartet/)</t>
-  </si>
-  <si>
     <t>40 Sites</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>Immunology</t>
   </si>
   <si>
-    <t>[Bacterial vaginosis](https://www.clinicaltrialsregister.eu/ctr-search/search?query=2020-002489-15)</t>
-  </si>
-  <si>
     <t>39 Sites</t>
   </si>
   <si>
@@ -293,9 +275,6 @@
     <t xml:space="preserve">[Thermal Burns](https://clinicaltrials.gov/ct2/show/NCT02148705) </t>
   </si>
   <si>
-    <t>[Aesthetic Medicine Skin perception](https://www.clinicaltrialsregister.eu/ctr-search/search?query=2020-001318-39)</t>
-  </si>
-  <si>
     <t>[Bilateral Blepharospasm](https://clinicaltrials.gov/ct2/show/NCT01896895)</t>
   </si>
   <si>
@@ -419,13 +398,262 @@
     <t>[Metastatic Prostate Cancer](https://classic.clinicaltrials.gov/ct2/show/NCT04786847)</t>
   </si>
   <si>
-    <t xml:space="preserve">Telix </t>
-  </si>
-  <si>
     <t>[Eosinophilic Gastroenteritis](https://classic.clinicaltrials.gov/ct2/show/NCT05214768)</t>
   </si>
   <si>
     <t>CC-93538</t>
+  </si>
+  <si>
+    <t>Sotio Biotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEM333 </t>
+  </si>
+  <si>
+    <t>CA209-9KH</t>
+  </si>
+  <si>
+    <t>Telix 177Lu-DOTA-TLX591</t>
+  </si>
+  <si>
+    <t>GEM3PSCA</t>
+  </si>
+  <si>
+    <t>Impress</t>
+  </si>
+  <si>
+    <t>GeparX</t>
+  </si>
+  <si>
+    <t>GeparNuevo</t>
+  </si>
+  <si>
+    <t>GBG</t>
+  </si>
+  <si>
+    <t>PENELOPE-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asieris </t>
+  </si>
+  <si>
+    <t>Turning Point Therapeutics</t>
+  </si>
+  <si>
+    <t>ARGOS</t>
+  </si>
+  <si>
+    <t>Zeiss-RELAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiss-PROMIZ </t>
+  </si>
+  <si>
+    <t>Zeiss-VirtIOL</t>
+  </si>
+  <si>
+    <t>Zeiss-RT Decalin</t>
+  </si>
+  <si>
+    <t>SSAT073</t>
+  </si>
+  <si>
+    <t>LOTAB_2b</t>
+  </si>
+  <si>
+    <t>Immunservice</t>
+  </si>
+  <si>
+    <t>ATR-101-202</t>
+  </si>
+  <si>
+    <t>Merz Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>HM242</t>
+  </si>
+  <si>
+    <t>HM242-Gel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediWound </t>
+  </si>
+  <si>
+    <t>NCT04234113</t>
+  </si>
+  <si>
+    <t>NCT03516760</t>
+  </si>
+  <si>
+    <t>NCT03927573</t>
+  </si>
+  <si>
+    <t>NCT04098432</t>
+  </si>
+  <si>
+    <t>NCT05583552</t>
+  </si>
+  <si>
+    <t>NCT04484415</t>
+  </si>
+  <si>
+    <t>NCT01864746</t>
+  </si>
+  <si>
+    <t>NCT03993873</t>
+  </si>
+  <si>
+    <t>NCT04786847</t>
+  </si>
+  <si>
+    <t>NCT03651336</t>
+  </si>
+  <si>
+    <t>NCT03790592</t>
+  </si>
+  <si>
+    <t>NCT03839420</t>
+  </si>
+  <si>
+    <t>NCT04998409</t>
+  </si>
+  <si>
+    <t>NCT04789538</t>
+  </si>
+  <si>
+    <t>NCT04793789</t>
+  </si>
+  <si>
+    <t>NCT04907500</t>
+  </si>
+  <si>
+    <t>NCT04545671</t>
+  </si>
+  <si>
+    <t>NCT05201027</t>
+  </si>
+  <si>
+    <t>NCT04252716</t>
+  </si>
+  <si>
+    <t>NCT04776044</t>
+  </si>
+  <si>
+    <t>NCT04750759</t>
+  </si>
+  <si>
+    <t>NCT02682693</t>
+  </si>
+  <si>
+    <t>[Breast Cancer](https://clinicaltrials.gov/study/NCT02682693)</t>
+  </si>
+  <si>
+    <t>NCT02685059</t>
+  </si>
+  <si>
+    <t>[Breast Cance](https://clinicaltrials.gov/study/NCT02685059)</t>
+  </si>
+  <si>
+    <t>NCT03094507</t>
+  </si>
+  <si>
+    <t>NCT04769895</t>
+  </si>
+  <si>
+    <t>NCT03669549</t>
+  </si>
+  <si>
+    <t>NCT04934072</t>
+  </si>
+  <si>
+    <t>NCT05214768</t>
+  </si>
+  <si>
+    <t>NCT05014672</t>
+  </si>
+  <si>
+    <t>NCT02408549</t>
+  </si>
+  <si>
+    <t>NCT02148705</t>
+  </si>
+  <si>
+    <t>NCT01896895</t>
+  </si>
+  <si>
+    <t>NCT04192123</t>
+  </si>
+  <si>
+    <t>NCT04902651</t>
+  </si>
+  <si>
+    <t>NCT05916365</t>
+  </si>
+  <si>
+    <t>NCT04198558</t>
+  </si>
+  <si>
+    <t>ATR-002-202</t>
+  </si>
+  <si>
+    <t>NICCAM</t>
+  </si>
+  <si>
+    <t>Rapid-test</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medinova </t>
+  </si>
+  <si>
+    <t>MEDINIK-02</t>
+  </si>
+  <si>
+    <t>Zeiss-VENUStoric</t>
+  </si>
+  <si>
+    <t>Zeiss-UVEA 809</t>
+  </si>
+  <si>
+    <t>Zeiss-UVEA 839</t>
+  </si>
+  <si>
+    <t>Zeiss-HECATE A</t>
+  </si>
+  <si>
+    <t>Zeiss-VISPER</t>
+  </si>
+  <si>
+    <t>Zeiss-UVEA 709</t>
+  </si>
+  <si>
+    <t>Zeiss-UVEA 509</t>
+  </si>
+  <si>
+    <t>Zeiss-UVEA 209</t>
+  </si>
+  <si>
+    <t>[Bacterial vaginosis](https://clinicaltrials.gov/study/NCT05788991)</t>
+  </si>
+  <si>
+    <t>NCT05788991</t>
+  </si>
+  <si>
+    <t>Clinicaltrials ID</t>
+  </si>
+  <si>
+    <t>Zeiss-Terra</t>
+  </si>
+  <si>
+    <t>[Visumax Femtosecond Laser to Perform SMILE Optimized For Presbyopia](https://www.hra.nhs.uk/planning-and-improving-research/application-summaries/research-summaries/visumax-femtosecond-laser-to-perform-smile-optimized-for-presbyopia/)</t>
+  </si>
+  <si>
+    <t>[Skin perception after intradermal application of IncobotulinumtoxinA](https://www.clinicaltrialsregister.eu/ctr-search/search?query=2020-001318-39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncobotulinumtoxinA </t>
   </si>
 </sst>
 </file>
@@ -797,1117 +1025,1358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="106" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G60" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
